--- a/uploads/Rasoi_2026-01-10_order_list.xlsx
+++ b/uploads/Rasoi_2026-01-10_order_list.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Apna Bazar" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Bavan" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Restaurant Depot" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Restaurant Depot" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,72 +425,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Requested quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Supplier</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Thai Chilli</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Apna Bazar</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sattu</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Apna Bazar</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -521,57 +453,6 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Very Spicy Red Chilli Powder</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bavan</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Requested quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Supplier</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
           <t>Onion white</t>
         </is>
       </c>
@@ -579,21 +460,6 @@
         <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Restaurant Depot</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Onion Red</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>Restaurant Depot</t>
         </is>

--- a/uploads/Rasoi_2026-01-10_order_list.xlsx
+++ b/uploads/Rasoi_2026-01-10_order_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,13 +453,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Onion white</t>
+          <t>Potato Russel</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Restaurant Depot</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Frozen Peas and carrot cut</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Restaurant Depot</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paneer - Not Appel, not Nanak</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Restaurant Depot</t>
         </is>
